--- a/REGULAR/MAHOGANY MARKET/ANGCAYA, FRANCIS.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ANGCAYA, FRANCIS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1660,9 +1660,9 @@
   <dimension ref="A2:K409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A329" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A353" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E337" sqref="E337"/>
+      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>141.03500000000008</v>
+        <v>143.53500000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1833,7 +1833,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>358.875</v>
+        <v>360.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9422,15 +9422,17 @@
       <c r="B365" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="38">
         <v>2</v>
       </c>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="38"/>
       <c r="I365" s="9"/>
@@ -9443,19 +9445,27 @@
       <c r="A366" s="39">
         <v>45139</v>
       </c>
-      <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
+      <c r="B366" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="38"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H366" s="38"/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H366" s="38">
+        <v>1</v>
+      </c>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="48">
+        <v>45173</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
